--- a/Excel_tareas.xlsx
+++ b/Excel_tareas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ceu365-my.sharepoint.com/personal/ivan_rengelferreira_usp_ceu_es/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacoc\Akali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="930" documentId="8_{509D500F-C19B-4F36-835E-9A6560B02570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{806BEA3F-FB2D-4D7C-BBAF-C1FFAB893A0C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4146E5BB-B304-459B-8850-C0A439952879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{58A3BA58-A805-4B3F-98FC-E9854B22FB4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" xr2:uid="{58A3BA58-A805-4B3F-98FC-E9854B22FB4B}"/>
   </bookViews>
   <sheets>
     <sheet name="TAREAS" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="129">
   <si>
     <t>Nº 1 Autenticación y perfil de hábitos</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Angel/Pablo</t>
   </si>
   <si>
-    <t>07/10/20025</t>
-  </si>
-  <si>
     <t>Al introducir usuarios o contraseñas sean válidos (no hayan sido creados), salta un mensaje de error por pantalla</t>
   </si>
   <si>
@@ -430,6 +427,12 @@
   </si>
   <si>
     <t>Angel</t>
+  </si>
+  <si>
+    <t>En la sección habrá un botón que permitirá al usuario eliminar tareas</t>
+  </si>
+  <si>
+    <t>Asignado a cada tarea habrá un boton que cambie el estado entre completado y no completado al ser pulsado</t>
   </si>
 </sst>
 </file>
@@ -439,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,11 +1180,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD407E0E-BF19-42C9-9C99-4C8BD6E0A35A}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="105.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
@@ -1202,10 +1205,10 @@
     <col min="20" max="20" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
@@ -1253,7 +1256,7 @@
       </c>
       <c r="P3" s="35"/>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1278,7 +1281,7 @@
       <c r="H4" s="2"/>
       <c r="P4" s="35"/>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -1304,7 +1307,7 @@
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1328,7 +1331,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>18</v>
       </c>
@@ -1352,7 +1355,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="14.45" customHeight="1">
+    <row r="8" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>20</v>
       </c>
@@ -1376,7 +1379,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>21</v>
       </c>
@@ -1400,7 +1403,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="14.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1424,7 +1427,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="14.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
@@ -1448,7 +1451,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="14.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
@@ -1472,7 +1475,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="14.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1482,7 +1485,7 @@
       <c r="G13" s="44"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="14.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>26</v>
       </c>
@@ -1499,7 +1502,7 @@
       <c r="G14" s="30"/>
       <c r="H14" s="61"/>
     </row>
-    <row r="15" spans="1:16" ht="28.9">
+    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>27</v>
       </c>
@@ -1511,9 +1514,9 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:16" ht="14.45"/>
-    <row r="17" spans="1:8" ht="14.45"/>
-    <row r="18" spans="1:8" ht="14.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -1525,7 +1528,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="14.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>2</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
@@ -1575,7 +1578,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="14.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>31</v>
       </c>
@@ -1599,7 +1602,7 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="14.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>32</v>
       </c>
@@ -1623,7 +1626,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="14.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1647,7 +1650,7 @@
       </c>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" ht="14.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>35</v>
       </c>
@@ -1671,7 +1674,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="14.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -1695,7 +1698,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" ht="14.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>37</v>
       </c>
@@ -1719,7 +1722,7 @@
       </c>
       <c r="H26" s="80"/>
     </row>
-    <row r="27" spans="1:8" ht="14.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>39</v>
       </c>
@@ -1743,7 +1746,7 @@
       </c>
       <c r="H27" s="80"/>
     </row>
-    <row r="28" spans="1:8" ht="14.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>26</v>
       </c>
@@ -1760,7 +1763,7 @@
       <c r="G28" s="81"/>
       <c r="H28" s="29"/>
     </row>
-    <row r="29" spans="1:8" ht="14.45">
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
         <v>40</v>
       </c>
@@ -1772,10 +1775,10 @@
       <c r="G29" s="5"/>
       <c r="H29" s="62"/>
     </row>
-    <row r="30" spans="1:8" ht="14.45"/>
-    <row r="31" spans="1:8" ht="14.45"/>
-    <row r="32" spans="1:8" ht="14.45"/>
-    <row r="33" spans="1:8" ht="14.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>41</v>
       </c>
@@ -1787,7 +1790,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="64"/>
     </row>
-    <row r="34" spans="1:8" ht="14.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>2</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>43</v>
       </c>
@@ -1837,7 +1840,7 @@
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="14.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>45</v>
       </c>
@@ -1861,7 +1864,7 @@
       </c>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" ht="14.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>46</v>
       </c>
@@ -1885,7 +1888,7 @@
       </c>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="14.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>47</v>
       </c>
@@ -1909,7 +1912,7 @@
       </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="14.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>48</v>
       </c>
@@ -1933,7 +1936,7 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="14.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>49</v>
       </c>
@@ -1957,7 +1960,7 @@
       </c>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" ht="14.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -1967,7 +1970,7 @@
       <c r="G41" s="46"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" ht="14.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>26</v>
       </c>
@@ -1984,7 +1987,7 @@
       <c r="G42" s="30"/>
       <c r="H42" s="61"/>
     </row>
-    <row r="43" spans="1:8" ht="43.15">
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="57" t="s">
         <v>50</v>
       </c>
@@ -1996,10 +1999,10 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="14.45"/>
-    <row r="45" spans="1:8" ht="14.45"/>
-    <row r="46" spans="1:8" ht="14.45"/>
-    <row r="47" spans="1:8" ht="14.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>51</v>
       </c>
@@ -2011,7 +2014,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="14.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>2</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>52</v>
       </c>
@@ -2061,7 +2064,7 @@
       </c>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="1:8" ht="14.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>53</v>
       </c>
@@ -2085,7 +2088,7 @@
       </c>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" ht="14.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -2109,7 +2112,7 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="14.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>47</v>
       </c>
@@ -2133,7 +2136,7 @@
       </c>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" ht="14.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>56</v>
       </c>
@@ -2157,7 +2160,7 @@
       </c>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" ht="14.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>57</v>
       </c>
@@ -2181,7 +2184,7 @@
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="14.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
         <v>26</v>
       </c>
@@ -2198,7 +2201,7 @@
       <c r="G55" s="56"/>
       <c r="H55" s="56"/>
     </row>
-    <row r="56" spans="1:8" ht="28.9">
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
         <v>59</v>
       </c>
@@ -2210,10 +2213,10 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" ht="14.45"/>
-    <row r="58" spans="1:8" ht="14.45"/>
-    <row r="59" spans="1:8" ht="14.45"/>
-    <row r="60" spans="1:8" ht="14.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>60</v>
       </c>
@@ -2225,7 +2228,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="64"/>
     </row>
-    <row r="61" spans="1:8" ht="14.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>2</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>61</v>
       </c>
@@ -2275,7 +2278,7 @@
       </c>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" ht="14.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>62</v>
       </c>
@@ -2299,7 +2302,7 @@
       </c>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" ht="14.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>63</v>
       </c>
@@ -2323,7 +2326,7 @@
       </c>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:9" ht="14.45">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
         <v>26</v>
       </c>
@@ -2340,7 +2343,7 @@
       <c r="G65" s="44"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="1:9" ht="14.45">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>64</v>
       </c>
@@ -2352,10 +2355,10 @@
       <c r="G66" s="15"/>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:9" ht="14.45"/>
-    <row r="68" spans="1:9" ht="14.45"/>
-    <row r="69" spans="1:9" ht="14.45"/>
-    <row r="70" spans="1:9" ht="14.45">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>65</v>
       </c>
@@ -2367,7 +2370,7 @@
       <c r="G70" s="12"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:9" ht="14.45">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>2</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="14.45">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>66</v>
       </c>
@@ -2410,12 +2413,14 @@
       <c r="F72" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="G72" s="59"/>
+      <c r="G72" s="74">
+        <v>45859</v>
+      </c>
       <c r="H72" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>68</v>
       </c>
@@ -2432,13 +2437,15 @@
       <c r="F73" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="G73" s="60"/>
+      <c r="G73" s="74">
+        <v>45859</v>
+      </c>
       <c r="H73" s="2" t="s">
         <v>69</v>
       </c>
       <c r="I73" s="25"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>70</v>
       </c>
@@ -2449,13 +2456,15 @@
       <c r="F74" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="G74" s="60"/>
+      <c r="G74" s="74">
+        <v>45859</v>
+      </c>
       <c r="H74" s="2" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="I74" s="25"/>
     </row>
-    <row r="75" spans="1:9" ht="14.45">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>71</v>
       </c>
@@ -2472,10 +2481,14 @@
       <c r="F75" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="G75" s="60"/>
-      <c r="H75" s="65"/>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="G75" s="74">
+        <v>45859</v>
+      </c>
+      <c r="H75" s="65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2485,7 +2498,7 @@
       <c r="G76" s="60"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="1:9" ht="14.45">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="13"/>
       <c r="C77" s="2"/>
@@ -2495,7 +2508,7 @@
       <c r="G77" s="60"/>
       <c r="H77" s="2"/>
     </row>
-    <row r="78" spans="1:9" ht="14.45">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
         <v>26</v>
       </c>
@@ -2507,7 +2520,7 @@
       <c r="G78" s="67"/>
       <c r="H78" s="29"/>
     </row>
-    <row r="79" spans="1:9" ht="14.45">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="57" t="s">
         <v>72</v>
       </c>
@@ -2519,7 +2532,7 @@
       <c r="G79" s="15"/>
       <c r="H79" s="5"/>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1">
+    <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>73</v>
       </c>
@@ -2531,7 +2544,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>2</v>
       </c>
@@ -2557,7 +2570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>74</v>
       </c>
@@ -2576,19 +2589,19 @@
       <c r="F86" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G86" s="74" t="s">
+      <c r="G86" s="74">
+        <v>45859</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H86" s="2" t="s">
+    </row>
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1">
-      <c r="A87" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="C87" s="70" t="s">
         <v>23</v>
@@ -2602,14 +2615,14 @@
       <c r="F87" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G87" s="74" t="s">
-        <v>76</v>
+      <c r="G87" s="74">
+        <v>45859</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
         <v>26</v>
       </c>
@@ -2624,7 +2637,7 @@
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -2634,9 +2647,9 @@
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2646,7 +2659,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="20" t="s">
         <v>2</v>
       </c>
@@ -2672,43 +2685,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
+      <c r="G95" s="74">
+        <v>45859</v>
+      </c>
       <c r="H95" s="2"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
+      <c r="G96" s="74">
+        <v>45859</v>
+      </c>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="1:8" ht="15" customHeight="1">
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
+      <c r="G97" s="74">
+        <v>45859</v>
+      </c>
       <c r="H97" s="2"/>
     </row>
-    <row r="98" spans="1:8" ht="15" customHeight="1">
+    <row r="98" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="29" t="s">
         <v>26</v>
       </c>
@@ -2720,7 +2739,7 @@
       <c r="G98" s="29"/>
       <c r="H98" s="29"/>
     </row>
-    <row r="99" spans="1:8" ht="15" customHeight="1">
+    <row r="99" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -2730,23 +2749,23 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
     </row>
-    <row r="100" spans="1:8" ht="15" customHeight="1">
+    <row r="100" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="71"/>
     </row>
-    <row r="101" spans="1:8" ht="15" customHeight="1">
+    <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="71"/>
     </row>
-    <row r="102" spans="1:8" ht="15" customHeight="1">
+    <row r="102" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="71"/>
     </row>
-    <row r="103" spans="1:8" ht="15" customHeight="1">
+    <row r="103" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="72"/>
       <c r="E103" s="35"/>
       <c r="G103" s="73"/>
     </row>
-    <row r="104" spans="1:8" ht="15" customHeight="1">
+    <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2756,7 +2775,7 @@
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" ht="15" customHeight="1">
+    <row r="105" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="20" t="s">
         <v>2</v>
       </c>
@@ -2770,7 +2789,7 @@
         <v>42</v>
       </c>
       <c r="E105" s="51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>7</v>
@@ -2782,9 +2801,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" customHeight="1">
+    <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2794,9 +2813,9 @@
       <c r="G106" s="69"/>
       <c r="H106" s="2"/>
     </row>
-    <row r="107" spans="1:8" ht="15" customHeight="1">
+    <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2806,9 +2825,9 @@
       <c r="G107" s="69"/>
       <c r="H107" s="2"/>
     </row>
-    <row r="108" spans="1:8" ht="15" customHeight="1">
+    <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2818,7 +2837,7 @@
       <c r="G108" s="69"/>
       <c r="H108" s="2"/>
     </row>
-    <row r="109" spans="1:8" ht="15" customHeight="1">
+    <row r="109" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="29" t="s">
         <v>26</v>
       </c>
@@ -2830,7 +2849,7 @@
       <c r="G109" s="77"/>
       <c r="H109" s="29"/>
     </row>
-    <row r="110" spans="1:8" ht="15" customHeight="1">
+    <row r="110" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -2853,7 +2872,7 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75.140625" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
@@ -2861,9 +2880,9 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="1"/>
@@ -2871,7 +2890,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="28"/>
       <c r="C2" s="5"/>
@@ -2879,7 +2898,7 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2899,9 +2918,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>44</v>
@@ -2917,9 +2936,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>44</v>
@@ -2935,9 +2954,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>44</v>
@@ -2953,9 +2972,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>44</v>
@@ -2971,9 +2990,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>44</v>
@@ -2989,9 +3008,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -3009,9 +3028,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -3029,9 +3048,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -3049,9 +3068,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>44</v>
@@ -3069,9 +3088,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>44</v>
@@ -3089,9 +3108,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
@@ -3109,9 +3128,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>54</v>
@@ -3129,9 +3148,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>54</v>
@@ -3149,9 +3168,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>54</v>
@@ -3169,9 +3188,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>54</v>
@@ -3189,9 +3208,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="39" t="s">
         <v>44</v>
@@ -3209,9 +3228,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="39" t="s">
         <v>44</v>
@@ -3227,9 +3246,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>44</v>
@@ -3247,9 +3266,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>54</v>
@@ -3267,9 +3286,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>54</v>
@@ -3287,12 +3306,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>23</v>
@@ -3307,9 +3326,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>33</v>
@@ -3334,15 +3353,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CB8A1C-0EEB-40DD-96E0-8BA570E2D2B8}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="78" t="s">
         <v>14</v>
@@ -3354,46 +3373,46 @@
         <v>38</v>
       </c>
       <c r="E1" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="G1" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="H1" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="I1" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="J1" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="K1" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="L1" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="M1" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="N1" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="78" t="s">
+      <c r="O1" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="O1" s="78" t="s">
+      <c r="P1" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="P1" s="78" t="s">
+      <c r="Q1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>17</v>
       </c>
@@ -3462,7 +3481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
         <v>44</v>
       </c>
@@ -3531,9 +3550,9 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="33">
         <f>SUMIFS(TAREAS!$E$2:$E$338,TAREAS!$B$2:$B$338,"*"&amp;$A4&amp;"*",TAREAS!$F$2:$F$338,B$1) + SUMIFS('TAREAS EXTRA'!$E$4:$E$336,'TAREAS EXTRA'!$B$4:$B$336,"*"&amp;$A4&amp;"*",'TAREAS EXTRA'!$F$4:$F$336,B$1)</f>
@@ -3600,7 +3619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
         <v>54</v>
       </c>
@@ -3669,7 +3688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="78" t="s">
         <v>30</v>
       </c>
@@ -3738,7 +3757,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="78" t="s">
         <v>33</v>
       </c>
@@ -3807,7 +3826,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
@@ -3883,6 +3902,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001A2890032ECC8D42A9B47FCAB7A6AE5B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4bc73805db26cd76b1f507433ce02467">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4" xmlns:ns4="445ad1ed-65e8-4ac6-89a2-5a80de8ff027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85b08b0a29ea0cd8c42482704c8b3285" ns3:_="" ns4:_="">
     <xsd:import namespace="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4"/>
@@ -4103,31 +4139,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B78835B5-62B6-4031-B516-2848BCFD4AA5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787386DB-8B0E-416C-B49A-CF788B487C65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89206744-1C12-4D7A-BD24-E06D4EEE600C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89206744-1C12-4D7A-BD24-E06D4EEE600C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787386DB-8B0E-416C-B49A-CF788B487C65}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B78835B5-62B6-4031-B516-2848BCFD4AA5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4"/>
+    <ds:schemaRef ds:uri="445ad1ed-65e8-4ac6-89a2-5a80de8ff027"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel_tareas.xlsx
+++ b/Excel_tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacoc\Akali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4146E5BB-B304-459B-8850-C0A439952879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0299DA6-6EF3-4ACA-B4F8-CF67B402DE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" xr2:uid="{58A3BA58-A805-4B3F-98FC-E9854B22FB4B}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="129">
   <si>
     <t>Nº 1 Autenticación y perfil de hábitos</t>
   </si>
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD407E0E-BF19-42C9-9C99-4C8BD6E0A35A}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2403,7 +2403,9 @@
       <c r="B72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="D72" s="2">
         <v>0.5</v>
       </c>
@@ -2427,12 +2429,14 @@
       <c r="B73" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="D73" s="2">
         <v>1</v>
       </c>
       <c r="E73" s="33">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F73" s="44" t="s">
         <v>38</v>
@@ -2464,19 +2468,21 @@
       </c>
       <c r="I74" s="25"/>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75" s="43" t="s">
+        <v>23</v>
+      </c>
       <c r="D75" s="2">
         <v>1</v>
       </c>
       <c r="E75" s="33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F75" s="44" t="s">
         <v>38</v>
@@ -3426,7 +3432,7 @@
       </c>
       <c r="D2" s="33">
         <f>SUMIFS(TAREAS!$E$2:$E$338,TAREAS!$B$2:$B$338,"*"&amp;$A2&amp;"*",TAREAS!$F$2:$F$338,D$1) + SUMIFS('TAREAS EXTRA'!$E$4:$E$336,'TAREAS EXTRA'!$B$4:$B$336,"*"&amp;$A2&amp;"*",'TAREAS EXTRA'!$F$4:$F$336,D$1)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="33">
         <f>SUMIFS(TAREAS!$E$2:$E$338,TAREAS!$B$2:$B$338,"*"&amp;$A2&amp;"*",TAREAS!$F$2:$F$338,E$1) + SUMIFS('TAREAS EXTRA'!$E$4:$E$336,'TAREAS EXTRA'!$B$4:$B$336,"*"&amp;$A2&amp;"*",'TAREAS EXTRA'!$F$4:$F$336,E$1)</f>
@@ -3478,7 +3484,7 @@
       </c>
       <c r="Q2" s="83">
         <f>SUM(B2:P2)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -3840,7 +3846,7 @@
       </c>
       <c r="D8" s="83">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="83">
         <f t="shared" si="1"/>
@@ -3892,7 +3898,7 @@
       </c>
       <c r="Q8" s="83">
         <f>SUM(Q2:Q7)</f>
-        <v>82.75</v>
+        <v>84.75</v>
       </c>
     </row>
   </sheetData>
@@ -3902,23 +3908,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001A2890032ECC8D42A9B47FCAB7A6AE5B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4bc73805db26cd76b1f507433ce02467">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4" xmlns:ns4="445ad1ed-65e8-4ac6-89a2-5a80de8ff027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85b08b0a29ea0cd8c42482704c8b3285" ns3:_="" ns4:_="">
     <xsd:import namespace="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4"/>
@@ -4139,25 +4128,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787386DB-8B0E-416C-B49A-CF788B487C65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89206744-1C12-4D7A-BD24-E06D4EEE600C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B78835B5-62B6-4031-B516-2848BCFD4AA5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4174,4 +4162,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89206744-1C12-4D7A-BD24-E06D4EEE600C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787386DB-8B0E-416C-B49A-CF788B487C65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel_tareas.xlsx
+++ b/Excel_tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacoc\Akali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0299DA6-6EF3-4ACA-B4F8-CF67B402DE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2E774D-B84F-4EB7-AB16-D91A273A7902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" xr2:uid="{58A3BA58-A805-4B3F-98FC-E9854B22FB4B}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="129">
   <si>
     <t>Nº 1 Autenticación y perfil de hábitos</t>
   </si>
@@ -255,9 +255,6 @@
     <t>Poder añadir elementos a la lista</t>
   </si>
   <si>
-    <t>En la sección habrá un botón que permitirá al usuario crear nuevas tareas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Poder eliminar elementos </t>
   </si>
   <si>
@@ -429,10 +426,13 @@
     <t>Angel</t>
   </si>
   <si>
-    <t>En la sección habrá un botón que permitirá al usuario eliminar tareas</t>
-  </si>
-  <si>
-    <t>Asignado a cada tarea habrá un boton que cambie el estado entre completado y no completado al ser pulsado</t>
+    <t>En la sección habrá un botón que permitirá al usuario crear nuevas tareas. Para usarlo, deberá primero introducir en la barra de texto a su lado el nombre de la tarea.</t>
+  </si>
+  <si>
+    <t>En la sección habrá un botón que permitirá al usuario eliminar tareas. Habrá uno por tarea</t>
+  </si>
+  <si>
+    <t>Asignado a cada tarea habrá un botón que cambie el estado entre completado y no completado al ser pulsado. Completado vendrá indicado por un recuadro verde, no completado por marrón.</t>
   </si>
 </sst>
 </file>
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD407E0E-BF19-42C9-9C99-4C8BD6E0A35A}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="B63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2445,15 +2445,17 @@
         <v>45859</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="I73" s="25"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="33"/>
@@ -2468,9 +2470,9 @@
       </c>
       <c r="I74" s="25"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>17</v>
@@ -2528,7 +2530,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -2540,7 +2542,7 @@
     </row>
     <row r="84" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2578,10 +2580,10 @@
     </row>
     <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C86" s="70" t="s">
         <v>23</v>
@@ -2599,15 +2601,15 @@
         <v>45859</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="C87" s="70" t="s">
         <v>23</v>
@@ -2625,7 +2627,7 @@
         <v>45859</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2655,7 +2657,7 @@
     </row>
     <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2693,7 +2695,7 @@
     </row>
     <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2707,7 +2709,7 @@
     </row>
     <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2721,7 +2723,7 @@
     </row>
     <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2771,7 +2773,7 @@
     </row>
     <row r="104" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2795,7 +2797,7 @@
         <v>42</v>
       </c>
       <c r="E105" s="51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>7</v>
@@ -2809,7 +2811,7 @@
     </row>
     <row r="106" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2821,7 +2823,7 @@
     </row>
     <row r="107" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2833,7 +2835,7 @@
     </row>
     <row r="108" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2888,7 +2890,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="1"/>
@@ -2926,7 +2928,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>44</v>
@@ -2944,7 +2946,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>44</v>
@@ -2962,7 +2964,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>44</v>
@@ -2980,7 +2982,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>44</v>
@@ -2998,7 +3000,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>44</v>
@@ -3016,7 +3018,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -3036,7 +3038,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
@@ -3056,7 +3058,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -3076,7 +3078,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>44</v>
@@ -3096,7 +3098,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>44</v>
@@ -3116,7 +3118,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
@@ -3136,7 +3138,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>54</v>
@@ -3156,7 +3158,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>54</v>
@@ -3176,7 +3178,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>54</v>
@@ -3196,7 +3198,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>54</v>
@@ -3216,7 +3218,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="39" t="s">
         <v>44</v>
@@ -3236,7 +3238,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="39" t="s">
         <v>44</v>
@@ -3254,7 +3256,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>44</v>
@@ -3274,7 +3276,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>54</v>
@@ -3294,7 +3296,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>54</v>
@@ -3314,10 +3316,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>23</v>
@@ -3334,7 +3336,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>33</v>
@@ -3367,7 +3369,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="78" t="s">
         <v>14</v>
@@ -3379,43 +3381,43 @@
         <v>38</v>
       </c>
       <c r="E1" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="G1" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="H1" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="I1" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="J1" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="K1" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="L1" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="M1" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="N1" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="78" t="s">
+      <c r="O1" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="78" t="s">
+      <c r="P1" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="P1" s="78" t="s">
+      <c r="Q1" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3558,7 +3560,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="33">
         <f>SUMIFS(TAREAS!$E$2:$E$338,TAREAS!$B$2:$B$338,"*"&amp;$A4&amp;"*",TAREAS!$F$2:$F$338,B$1) + SUMIFS('TAREAS EXTRA'!$E$4:$E$336,'TAREAS EXTRA'!$B$4:$B$336,"*"&amp;$A4&amp;"*",'TAREAS EXTRA'!$F$4:$F$336,B$1)</f>
@@ -3908,6 +3910,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001A2890032ECC8D42A9B47FCAB7A6AE5B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4bc73805db26cd76b1f507433ce02467">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4" xmlns:ns4="445ad1ed-65e8-4ac6-89a2-5a80de8ff027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85b08b0a29ea0cd8c42482704c8b3285" ns3:_="" ns4:_="">
     <xsd:import namespace="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4"/>
@@ -4128,24 +4147,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787386DB-8B0E-416C-B49A-CF788B487C65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89206744-1C12-4D7A-BD24-E06D4EEE600C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B78835B5-62B6-4031-B516-2848BCFD4AA5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4162,22 +4182,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89206744-1C12-4D7A-BD24-E06D4EEE600C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ac76a8e4-229b-45b3-bca1-87e9f4b60bc4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{787386DB-8B0E-416C-B49A-CF788B487C65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>